--- a/salah/docs/salah2025.xlsx
+++ b/salah/docs/salah2025.xlsx
@@ -7,11 +7,6 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rT+jrBF9dCRj14uNwF+j5/KeuZyRU5u0IvVuHQW0EI0="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -57,6 +52,7 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,10 +73,18 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -295,13 +299,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.5"/>
-    <col customWidth="1" min="2" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -324,9 +327,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="3">
-        <v>45292.0</v>
+        <v>45658.0</v>
       </c>
       <c r="B2" s="4">
         <v>0.26944444444444443</v>
@@ -347,9 +350,9 @@
         <v>0.7326388888888888</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="3">
-        <v>45293.0</v>
+        <v>45659.0</v>
       </c>
       <c r="B3" s="4">
         <v>0.26944444444444443</v>
@@ -370,9 +373,9 @@
         <v>0.7333333333333333</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="3">
-        <v>45294.0</v>
+        <v>45660.0</v>
       </c>
       <c r="B4" s="4">
         <v>0.26944444444444443</v>
@@ -393,9 +396,9 @@
         <v>0.7340277777777777</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="3">
-        <v>45295.0</v>
+        <v>45661.0</v>
       </c>
       <c r="B5" s="4">
         <v>0.26875</v>
@@ -416,9 +419,9 @@
         <v>0.7347222222222223</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="3">
-        <v>45296.0</v>
+        <v>45662.0</v>
       </c>
       <c r="B6" s="4">
         <v>0.26875</v>
@@ -439,9 +442,9 @@
         <v>0.7354166666666667</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="3">
-        <v>45297.0</v>
+        <v>45663.0</v>
       </c>
       <c r="B7" s="4">
         <v>0.26875</v>
@@ -462,9 +465,9 @@
         <v>0.7361111111111112</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="3">
-        <v>45298.0</v>
+        <v>45664.0</v>
       </c>
       <c r="B8" s="4">
         <v>0.26875</v>
@@ -485,9 +488,9 @@
         <v>0.7368055555555556</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="3">
-        <v>45299.0</v>
+        <v>45665.0</v>
       </c>
       <c r="B9" s="4">
         <v>0.26805555555555555</v>
@@ -508,9 +511,9 @@
         <v>0.7375</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="3">
-        <v>45300.0</v>
+        <v>45666.0</v>
       </c>
       <c r="B10" s="4">
         <v>0.26805555555555555</v>
@@ -531,9 +534,9 @@
         <v>0.7381944444444445</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="3">
-        <v>45301.0</v>
+        <v>45667.0</v>
       </c>
       <c r="B11" s="4">
         <v>0.2673611111111111</v>
@@ -554,9 +557,9 @@
         <v>0.7388888888888889</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="3">
-        <v>45302.0</v>
+        <v>45668.0</v>
       </c>
       <c r="B12" s="4">
         <v>0.2673611111111111</v>
@@ -577,9 +580,9 @@
         <v>0.7395833333333334</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="3">
-        <v>45303.0</v>
+        <v>45669.0</v>
       </c>
       <c r="B13" s="4">
         <v>0.26666666666666666</v>
@@ -600,9 +603,9 @@
         <v>0.7409722222222223</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="3">
-        <v>45304.0</v>
+        <v>45670.0</v>
       </c>
       <c r="B14" s="4">
         <v>0.2659722222222222</v>
@@ -611,7 +614,7 @@
         <v>0.33541666666666664</v>
       </c>
       <c r="D14" s="4">
-        <v>0.5097222222222222</v>
+        <v>0.5090277777777777</v>
       </c>
       <c r="E14" s="4">
         <v>0.6013888888888889</v>
@@ -623,9 +626,9 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="3">
-        <v>45305.0</v>
+        <v>45671.0</v>
       </c>
       <c r="B15" s="4">
         <v>0.2659722222222222</v>
@@ -646,9 +649,9 @@
         <v>0.7423611111111111</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="3">
-        <v>45306.0</v>
+        <v>45672.0</v>
       </c>
       <c r="B16" s="4">
         <v>0.2652777777777778</v>
@@ -669,9 +672,9 @@
         <v>0.74375</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="3">
-        <v>45307.0</v>
+        <v>45673.0</v>
       </c>
       <c r="B17" s="4">
         <v>0.26458333333333334</v>
@@ -692,9 +695,9 @@
         <v>0.7444444444444445</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18">
       <c r="A18" s="3">
-        <v>45308.0</v>
+        <v>45674.0</v>
       </c>
       <c r="B18" s="4">
         <v>0.2638888888888889</v>
@@ -715,9 +718,9 @@
         <v>0.7451388888888889</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="3">
-        <v>45309.0</v>
+        <v>45675.0</v>
       </c>
       <c r="B19" s="4">
         <v>0.26319444444444445</v>
@@ -738,9 +741,9 @@
         <v>0.7465277777777778</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="3">
-        <v>45310.0</v>
+        <v>45676.0</v>
       </c>
       <c r="B20" s="4">
         <v>0.2625</v>
@@ -761,9 +764,9 @@
         <v>0.7472222222222222</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21">
       <c r="A21" s="3">
-        <v>45311.0</v>
+        <v>45677.0</v>
       </c>
       <c r="B21" s="4">
         <v>0.26180555555555557</v>
@@ -784,9 +787,9 @@
         <v>0.7486111111111111</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22">
       <c r="A22" s="3">
-        <v>45312.0</v>
+        <v>45678.0</v>
       </c>
       <c r="B22" s="4">
         <v>0.2611111111111111</v>
@@ -807,9 +810,9 @@
         <v>0.7493055555555556</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23">
       <c r="A23" s="3">
-        <v>45313.0</v>
+        <v>45679.0</v>
       </c>
       <c r="B23" s="4">
         <v>0.2604166666666667</v>
@@ -830,9 +833,9 @@
         <v>0.7506944444444444</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24">
       <c r="A24" s="3">
-        <v>45314.0</v>
+        <v>45680.0</v>
       </c>
       <c r="B24" s="4">
         <v>0.25972222222222224</v>
@@ -853,9 +856,9 @@
         <v>0.7513888888888889</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25">
       <c r="A25" s="3">
-        <v>45315.0</v>
+        <v>45681.0</v>
       </c>
       <c r="B25" s="4">
         <v>0.2590277777777778</v>
@@ -876,9 +879,9 @@
         <v>0.7527777777777778</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26">
       <c r="A26" s="3">
-        <v>45316.0</v>
+        <v>45682.0</v>
       </c>
       <c r="B26" s="4">
         <v>0.25833333333333336</v>
@@ -899,9 +902,9 @@
         <v>0.7534722222222222</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27">
       <c r="A27" s="3">
-        <v>45317.0</v>
+        <v>45683.0</v>
       </c>
       <c r="B27" s="4">
         <v>0.2569444444444444</v>
@@ -922,9 +925,9 @@
         <v>0.7548611111111111</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28">
       <c r="A28" s="3">
-        <v>45318.0</v>
+        <v>45684.0</v>
       </c>
       <c r="B28" s="4">
         <v>0.25625</v>
@@ -933,7 +936,7 @@
         <v>0.325</v>
       </c>
       <c r="D28" s="4">
-        <v>0.5125</v>
+        <v>0.5118055555555555</v>
       </c>
       <c r="E28" s="4">
         <v>0.6173611111111111</v>
@@ -945,9 +948,9 @@
         <v>0.7555555555555555</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29">
       <c r="A29" s="3">
-        <v>45319.0</v>
+        <v>45685.0</v>
       </c>
       <c r="B29" s="4">
         <v>0.25555555555555554</v>
@@ -968,9 +971,9 @@
         <v>0.7569444444444444</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30">
       <c r="A30" s="3">
-        <v>45320.0</v>
+        <v>45686.0</v>
       </c>
       <c r="B30" s="4">
         <v>0.25416666666666665</v>
@@ -991,9 +994,9 @@
         <v>0.7583333333333333</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31">
       <c r="A31" s="3">
-        <v>45321.0</v>
+        <v>45687.0</v>
       </c>
       <c r="B31" s="4">
         <v>0.2534722222222222</v>
@@ -1014,9 +1017,9 @@
         <v>0.7590277777777777</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32">
       <c r="A32" s="3">
-        <v>45322.0</v>
+        <v>45688.0</v>
       </c>
       <c r="B32" s="4">
         <v>0.2520833333333333</v>
@@ -1037,9 +1040,9 @@
         <v>0.7604166666666666</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33">
       <c r="A33" s="3">
-        <v>45323.0</v>
+        <v>45689.0</v>
       </c>
       <c r="B33" s="4">
         <v>0.2513888888888889</v>
@@ -1060,9 +1063,9 @@
         <v>0.7611111111111111</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34">
       <c r="A34" s="3">
-        <v>45324.0</v>
+        <v>45690.0</v>
       </c>
       <c r="B34" s="4">
         <v>0.25</v>
@@ -1083,9 +1086,9 @@
         <v>0.7625</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35">
       <c r="A35" s="3">
-        <v>45325.0</v>
+        <v>45691.0</v>
       </c>
       <c r="B35" s="4">
         <v>0.24930555555555556</v>
@@ -1106,9 +1109,9 @@
         <v>0.7638888888888888</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36">
       <c r="A36" s="3">
-        <v>45326.0</v>
+        <v>45692.0</v>
       </c>
       <c r="B36" s="4">
         <v>0.24791666666666667</v>
@@ -1129,9 +1132,9 @@
         <v>0.7645833333333333</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37">
       <c r="A37" s="3">
-        <v>45327.0</v>
+        <v>45693.0</v>
       </c>
       <c r="B37" s="4">
         <v>0.24722222222222223</v>
@@ -1152,9 +1155,9 @@
         <v>0.7659722222222223</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38">
       <c r="A38" s="3">
-        <v>45328.0</v>
+        <v>45694.0</v>
       </c>
       <c r="B38" s="4">
         <v>0.24583333333333332</v>
@@ -1175,9 +1178,9 @@
         <v>0.7666666666666667</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39">
       <c r="A39" s="3">
-        <v>45329.0</v>
+        <v>45695.0</v>
       </c>
       <c r="B39" s="4">
         <v>0.24444444444444444</v>
@@ -1198,9 +1201,9 @@
         <v>0.7680555555555556</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40">
       <c r="A40" s="3">
-        <v>45330.0</v>
+        <v>45696.0</v>
       </c>
       <c r="B40" s="4">
         <v>0.24375</v>
@@ -1221,9 +1224,9 @@
         <v>0.7694444444444445</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41">
       <c r="A41" s="3">
-        <v>45331.0</v>
+        <v>45697.0</v>
       </c>
       <c r="B41" s="4">
         <v>0.2423611111111111</v>
@@ -1244,9 +1247,9 @@
         <v>0.7701388888888889</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42">
       <c r="A42" s="3">
-        <v>45332.0</v>
+        <v>45698.0</v>
       </c>
       <c r="B42" s="4">
         <v>0.24097222222222223</v>
@@ -1267,9 +1270,9 @@
         <v>0.7715277777777778</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43">
       <c r="A43" s="3">
-        <v>45333.0</v>
+        <v>45699.0</v>
       </c>
       <c r="B43" s="4">
         <v>0.23958333333333334</v>
@@ -1290,9 +1293,9 @@
         <v>0.7729166666666667</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44">
       <c r="A44" s="3">
-        <v>45334.0</v>
+        <v>45700.0</v>
       </c>
       <c r="B44" s="4">
         <v>0.2388888888888889</v>
@@ -1313,9 +1316,9 @@
         <v>0.7736111111111111</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45">
       <c r="A45" s="3">
-        <v>45335.0</v>
+        <v>45701.0</v>
       </c>
       <c r="B45" s="4">
         <v>0.2375</v>
@@ -1336,9 +1339,9 @@
         <v>0.775</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46">
       <c r="A46" s="3">
-        <v>45336.0</v>
+        <v>45702.0</v>
       </c>
       <c r="B46" s="4">
         <v>0.2361111111111111</v>
@@ -1359,9 +1362,9 @@
         <v>0.7763888888888889</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47">
       <c r="A47" s="3">
-        <v>45337.0</v>
+        <v>45703.0</v>
       </c>
       <c r="B47" s="4">
         <v>0.23472222222222222</v>
@@ -1382,9 +1385,9 @@
         <v>0.7770833333333333</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48">
       <c r="A48" s="3">
-        <v>45338.0</v>
+        <v>45704.0</v>
       </c>
       <c r="B48" s="4">
         <v>0.23333333333333334</v>
@@ -1405,9 +1408,9 @@
         <v>0.7784722222222222</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49">
       <c r="A49" s="3">
-        <v>45339.0</v>
+        <v>45705.0</v>
       </c>
       <c r="B49" s="4">
         <v>0.23194444444444445</v>
@@ -1428,9 +1431,9 @@
         <v>0.7791666666666667</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50">
       <c r="A50" s="3">
-        <v>45340.0</v>
+        <v>45706.0</v>
       </c>
       <c r="B50" s="4">
         <v>0.23055555555555557</v>
@@ -1451,9 +1454,9 @@
         <v>0.7805555555555556</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51">
       <c r="A51" s="3">
-        <v>45341.0</v>
+        <v>45707.0</v>
       </c>
       <c r="B51" s="4">
         <v>0.22916666666666666</v>
@@ -1474,9 +1477,9 @@
         <v>0.7819444444444444</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52">
       <c r="A52" s="3">
-        <v>45342.0</v>
+        <v>45708.0</v>
       </c>
       <c r="B52" s="4">
         <v>0.22777777777777777</v>
@@ -1497,9 +1500,9 @@
         <v>0.7826388888888889</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53">
       <c r="A53" s="3">
-        <v>45343.0</v>
+        <v>45709.0</v>
       </c>
       <c r="B53" s="4">
         <v>0.2263888888888889</v>
@@ -1520,9 +1523,9 @@
         <v>0.7840277777777778</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54">
       <c r="A54" s="3">
-        <v>45344.0</v>
+        <v>45710.0</v>
       </c>
       <c r="B54" s="4">
         <v>0.225</v>
@@ -1543,9 +1546,9 @@
         <v>0.7854166666666667</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55">
       <c r="A55" s="3">
-        <v>45345.0</v>
+        <v>45711.0</v>
       </c>
       <c r="B55" s="4">
         <v>0.22361111111111112</v>
@@ -1566,9 +1569,9 @@
         <v>0.7861111111111111</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56">
       <c r="A56" s="3">
-        <v>45346.0</v>
+        <v>45712.0</v>
       </c>
       <c r="B56" s="4">
         <v>0.2222222222222222</v>
@@ -1589,9 +1592,9 @@
         <v>0.7875</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57">
       <c r="A57" s="3">
-        <v>45347.0</v>
+        <v>45713.0</v>
       </c>
       <c r="B57" s="4">
         <v>0.22083333333333333</v>
@@ -1612,9 +1615,9 @@
         <v>0.7881944444444444</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58">
       <c r="A58" s="3">
-        <v>45348.0</v>
+        <v>45714.0</v>
       </c>
       <c r="B58" s="4">
         <v>0.21944444444444444</v>
@@ -1635,9 +1638,9 @@
         <v>0.7895833333333333</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59">
       <c r="A59" s="3">
-        <v>45349.0</v>
+        <v>45715.0</v>
       </c>
       <c r="B59" s="4">
         <v>0.21805555555555556</v>
@@ -1649,7 +1652,7 @@
         <v>0.5118055555555555</v>
       </c>
       <c r="E59" s="4">
-        <v>0.6548611111111111</v>
+        <v>0.6541666666666667</v>
       </c>
       <c r="F59" s="4">
         <v>0.7354166666666667</v>
@@ -1658,9 +1661,9 @@
         <v>0.7902777777777777</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60">
       <c r="A60" s="3">
-        <v>45350.0</v>
+        <v>45716.0</v>
       </c>
       <c r="B60" s="4">
         <v>0.21666666666666667</v>
@@ -1681,9 +1684,9 @@
         <v>0.7916666666666666</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61">
       <c r="A61" s="3">
-        <v>45352.0</v>
+        <v>45717.0</v>
       </c>
       <c r="B61" s="4">
         <v>0.2152777777777778</v>
@@ -1704,9 +1707,9 @@
         <v>0.7930555555555555</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62">
       <c r="A62" s="3">
-        <v>45353.0</v>
+        <v>45718.0</v>
       </c>
       <c r="B62" s="4">
         <v>0.21388888888888888</v>
@@ -1727,9 +1730,9 @@
         <v>0.79375</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63">
       <c r="A63" s="3">
-        <v>45354.0</v>
+        <v>45719.0</v>
       </c>
       <c r="B63" s="4">
         <v>0.2125</v>
@@ -1750,9 +1753,9 @@
         <v>0.7951388888888888</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64">
       <c r="A64" s="3">
-        <v>45355.0</v>
+        <v>45720.0</v>
       </c>
       <c r="B64" s="4">
         <v>0.2111111111111111</v>
@@ -1773,9 +1776,9 @@
         <v>0.7958333333333333</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65">
       <c r="A65" s="3">
-        <v>45356.0</v>
+        <v>45721.0</v>
       </c>
       <c r="B65" s="4">
         <v>0.20902777777777778</v>
@@ -1796,9 +1799,9 @@
         <v>0.7972222222222223</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66">
       <c r="A66" s="3">
-        <v>45357.0</v>
+        <v>45722.0</v>
       </c>
       <c r="B66" s="4">
         <v>0.2076388888888889</v>
@@ -1819,9 +1822,9 @@
         <v>0.7979166666666667</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67">
       <c r="A67" s="3">
-        <v>45358.0</v>
+        <v>45723.0</v>
       </c>
       <c r="B67" s="4">
         <v>0.20625</v>
@@ -1842,9 +1845,9 @@
         <v>0.7993055555555556</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68">
       <c r="A68" s="3">
-        <v>45359.0</v>
+        <v>45724.0</v>
       </c>
       <c r="B68" s="4">
         <v>0.2048611111111111</v>
@@ -1865,9 +1868,9 @@
         <v>0.8006944444444445</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69">
       <c r="A69" s="3">
-        <v>45360.0</v>
+        <v>45725.0</v>
       </c>
       <c r="B69" s="4">
         <v>0.20347222222222222</v>
@@ -1888,9 +1891,9 @@
         <v>0.8013888888888889</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70">
       <c r="A70" s="3">
-        <v>45361.0</v>
+        <v>45726.0</v>
       </c>
       <c r="B70" s="4">
         <v>0.20208333333333334</v>
@@ -1911,9 +1914,9 @@
         <v>0.8027777777777778</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71">
       <c r="A71" s="3">
-        <v>45362.0</v>
+        <v>45727.0</v>
       </c>
       <c r="B71" s="4">
         <v>0.2</v>
@@ -1934,9 +1937,9 @@
         <v>0.8034722222222223</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72">
       <c r="A72" s="3">
-        <v>45363.0</v>
+        <v>45728.0</v>
       </c>
       <c r="B72" s="4">
         <v>0.1986111111111111</v>
@@ -1957,9 +1960,9 @@
         <v>0.8048611111111111</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73">
       <c r="A73" s="3">
-        <v>45364.0</v>
+        <v>45729.0</v>
       </c>
       <c r="B73" s="4">
         <v>0.19722222222222222</v>
@@ -1980,9 +1983,9 @@
         <v>0.8055555555555556</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74">
       <c r="A74" s="3">
-        <v>45365.0</v>
+        <v>45730.0</v>
       </c>
       <c r="B74" s="4">
         <v>0.19583333333333333</v>
@@ -2003,9 +2006,9 @@
         <v>0.8069444444444445</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75">
       <c r="A75" s="3">
-        <v>45366.0</v>
+        <v>45731.0</v>
       </c>
       <c r="B75" s="4">
         <v>0.19444444444444445</v>
@@ -2026,9 +2029,9 @@
         <v>0.8076388888888889</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76">
       <c r="A76" s="3">
-        <v>45367.0</v>
+        <v>45732.0</v>
       </c>
       <c r="B76" s="4">
         <v>0.19236111111111112</v>
@@ -2049,9 +2052,9 @@
         <v>0.8090277777777778</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77">
       <c r="A77" s="3">
-        <v>45368.0</v>
+        <v>45733.0</v>
       </c>
       <c r="B77" s="4">
         <v>0.1909722222222222</v>
@@ -2072,9 +2075,9 @@
         <v>0.8097222222222222</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78">
       <c r="A78" s="3">
-        <v>45369.0</v>
+        <v>45734.0</v>
       </c>
       <c r="B78" s="4">
         <v>0.18958333333333333</v>
@@ -2095,9 +2098,9 @@
         <v>0.8111111111111111</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79">
       <c r="A79" s="3">
-        <v>45370.0</v>
+        <v>45735.0</v>
       </c>
       <c r="B79" s="4">
         <v>0.18819444444444444</v>
@@ -2118,9 +2121,9 @@
         <v>0.8118055555555556</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80">
       <c r="A80" s="3">
-        <v>45371.0</v>
+        <v>45736.0</v>
       </c>
       <c r="B80" s="4">
         <v>0.18611111111111112</v>
@@ -2141,9 +2144,9 @@
         <v>0.8131944444444444</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81">
       <c r="A81" s="3">
-        <v>45372.0</v>
+        <v>45737.0</v>
       </c>
       <c r="B81" s="4">
         <v>0.18472222222222223</v>
@@ -2164,9 +2167,9 @@
         <v>0.8138888888888889</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82">
       <c r="A82" s="3">
-        <v>45373.0</v>
+        <v>45738.0</v>
       </c>
       <c r="B82" s="4">
         <v>0.18333333333333332</v>
@@ -2187,9 +2190,9 @@
         <v>0.8152777777777778</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83">
       <c r="A83" s="3">
-        <v>45374.0</v>
+        <v>45739.0</v>
       </c>
       <c r="B83" s="4">
         <v>0.18125</v>
@@ -2210,9 +2213,9 @@
         <v>0.8159722222222222</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84">
       <c r="A84" s="3">
-        <v>45375.0</v>
+        <v>45740.0</v>
       </c>
       <c r="B84" s="4">
         <v>0.1798611111111111</v>
@@ -2233,9 +2236,9 @@
         <v>0.8173611111111111</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85">
       <c r="A85" s="3">
-        <v>45376.0</v>
+        <v>45741.0</v>
       </c>
       <c r="B85" s="4">
         <v>0.17777777777777778</v>
@@ -2256,9 +2259,9 @@
         <v>0.8180555555555555</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86">
       <c r="A86" s="3">
-        <v>45377.0</v>
+        <v>45742.0</v>
       </c>
       <c r="B86" s="4">
         <v>0.17569444444444443</v>
@@ -2279,9 +2282,9 @@
         <v>0.8194444444444444</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87">
       <c r="A87" s="3">
-        <v>45378.0</v>
+        <v>45743.0</v>
       </c>
       <c r="B87" s="4">
         <v>0.17430555555555555</v>
@@ -2302,9 +2305,9 @@
         <v>0.8201388888888889</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88">
       <c r="A88" s="3">
-        <v>45379.0</v>
+        <v>45744.0</v>
       </c>
       <c r="B88" s="4">
         <v>0.17222222222222222</v>
@@ -2325,9 +2328,9 @@
         <v>0.8215277777777777</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89">
       <c r="A89" s="3">
-        <v>45380.0</v>
+        <v>45745.0</v>
       </c>
       <c r="B89" s="4">
         <v>0.17083333333333334</v>
@@ -2348,9 +2351,9 @@
         <v>0.8222222222222222</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90">
       <c r="A90" s="3">
-        <v>45381.0</v>
+        <v>45746.0</v>
       </c>
       <c r="B90" s="4">
         <v>0.21041666666666667</v>
@@ -2371,9 +2374,9 @@
         <v>0.8652777777777778</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91">
       <c r="A91" s="3">
-        <v>45382.0</v>
+        <v>45747.0</v>
       </c>
       <c r="B91" s="4">
         <v>0.20833333333333334</v>
@@ -2394,9 +2397,9 @@
         <v>0.8659722222222223</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92">
       <c r="A92" s="3">
-        <v>45383.0</v>
+        <v>45748.0</v>
       </c>
       <c r="B92" s="4">
         <v>0.20694444444444443</v>
@@ -2417,9 +2420,9 @@
         <v>0.8673611111111111</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93">
       <c r="A93" s="3">
-        <v>45384.0</v>
+        <v>45749.0</v>
       </c>
       <c r="B93" s="4">
         <v>0.2048611111111111</v>
@@ -2440,9 +2443,9 @@
         <v>0.8680555555555556</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94">
       <c r="A94" s="3">
-        <v>45385.0</v>
+        <v>45750.0</v>
       </c>
       <c r="B94" s="4">
         <v>0.20347222222222222</v>
@@ -2463,9 +2466,9 @@
         <v>0.8694444444444445</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95">
       <c r="A95" s="3">
-        <v>45386.0</v>
+        <v>45751.0</v>
       </c>
       <c r="B95" s="4">
         <v>0.2013888888888889</v>
@@ -2486,9 +2489,9 @@
         <v>0.8701388888888889</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96">
       <c r="A96" s="3">
-        <v>45387.0</v>
+        <v>45752.0</v>
       </c>
       <c r="B96" s="4">
         <v>0.19930555555555557</v>
@@ -2509,9 +2512,9 @@
         <v>0.8715277777777778</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97">
       <c r="A97" s="3">
-        <v>45388.0</v>
+        <v>45753.0</v>
       </c>
       <c r="B97" s="4">
         <v>0.19791666666666666</v>
@@ -2532,9 +2535,9 @@
         <v>0.8722222222222222</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98">
       <c r="A98" s="3">
-        <v>45389.0</v>
+        <v>45754.0</v>
       </c>
       <c r="B98" s="4">
         <v>0.19583333333333333</v>
@@ -2555,9 +2558,9 @@
         <v>0.8736111111111111</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99">
       <c r="A99" s="3">
-        <v>45390.0</v>
+        <v>45755.0</v>
       </c>
       <c r="B99" s="4">
         <v>0.19444444444444445</v>
@@ -2578,9 +2581,9 @@
         <v>0.8743055555555556</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100">
       <c r="A100" s="3">
-        <v>45391.0</v>
+        <v>45756.0</v>
       </c>
       <c r="B100" s="4">
         <v>0.19236111111111112</v>
@@ -2601,9 +2604,9 @@
         <v>0.8756944444444444</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101">
       <c r="A101" s="3">
-        <v>45392.0</v>
+        <v>45757.0</v>
       </c>
       <c r="B101" s="4">
         <v>0.1909722222222222</v>
@@ -2624,9 +2627,9 @@
         <v>0.8763888888888889</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102">
       <c r="A102" s="3">
-        <v>45393.0</v>
+        <v>45758.0</v>
       </c>
       <c r="B102" s="4">
         <v>0.18888888888888888</v>
@@ -2647,9 +2650,9 @@
         <v>0.8777777777777778</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103">
       <c r="A103" s="3">
-        <v>45394.0</v>
+        <v>45759.0</v>
       </c>
       <c r="B103" s="4">
         <v>0.1875</v>
@@ -2670,9 +2673,9 @@
         <v>0.8784722222222222</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104">
       <c r="A104" s="3">
-        <v>45395.0</v>
+        <v>45760.0</v>
       </c>
       <c r="B104" s="4">
         <v>0.18541666666666667</v>
@@ -2693,9 +2696,9 @@
         <v>0.8798611111111111</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105">
       <c r="A105" s="3">
-        <v>45396.0</v>
+        <v>45761.0</v>
       </c>
       <c r="B105" s="4">
         <v>0.1840277777777778</v>
@@ -2716,9 +2719,9 @@
         <v>0.8805555555555555</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106">
       <c r="A106" s="3">
-        <v>45397.0</v>
+        <v>45762.0</v>
       </c>
       <c r="B106" s="4">
         <v>0.18194444444444444</v>
@@ -2739,9 +2742,9 @@
         <v>0.8819444444444444</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107">
       <c r="A107" s="3">
-        <v>45398.0</v>
+        <v>45763.0</v>
       </c>
       <c r="B107" s="4">
         <v>0.18055555555555555</v>
@@ -2762,9 +2765,9 @@
         <v>0.8826388888888889</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108">
       <c r="A108" s="3">
-        <v>45399.0</v>
+        <v>45764.0</v>
       </c>
       <c r="B108" s="4">
         <v>0.17847222222222223</v>
@@ -2785,9 +2788,9 @@
         <v>0.8840277777777777</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109">
       <c r="A109" s="3">
-        <v>45400.0</v>
+        <v>45765.0</v>
       </c>
       <c r="B109" s="4">
         <v>0.17708333333333334</v>
@@ -2808,9 +2811,9 @@
         <v>0.8847222222222222</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110">
       <c r="A110" s="3">
-        <v>45401.0</v>
+        <v>45766.0</v>
       </c>
       <c r="B110" s="4">
         <v>0.175</v>
@@ -2831,9 +2834,9 @@
         <v>0.8861111111111111</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111">
       <c r="A111" s="3">
-        <v>45402.0</v>
+        <v>45767.0</v>
       </c>
       <c r="B111" s="4">
         <v>0.1736111111111111</v>
@@ -2854,9 +2857,9 @@
         <v>0.8868055555555555</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112">
       <c r="A112" s="3">
-        <v>45403.0</v>
+        <v>45768.0</v>
       </c>
       <c r="B112" s="4">
         <v>0.17222222222222222</v>
@@ -2877,9 +2880,9 @@
         <v>0.8881944444444444</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113">
       <c r="A113" s="3">
-        <v>45404.0</v>
+        <v>45769.0</v>
       </c>
       <c r="B113" s="4">
         <v>0.1701388888888889</v>
@@ -2900,9 +2903,9 @@
         <v>0.8888888888888888</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114">
       <c r="A114" s="3">
-        <v>45405.0</v>
+        <v>45770.0</v>
       </c>
       <c r="B114" s="4">
         <v>0.16875</v>
@@ -2923,9 +2926,9 @@
         <v>0.8895833333333333</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115">
       <c r="A115" s="3">
-        <v>45406.0</v>
+        <v>45771.0</v>
       </c>
       <c r="B115" s="4">
         <v>0.16666666666666666</v>
@@ -2946,9 +2949,9 @@
         <v>0.8909722222222223</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116">
       <c r="A116" s="3">
-        <v>45407.0</v>
+        <v>45772.0</v>
       </c>
       <c r="B116" s="4">
         <v>0.16527777777777777</v>
@@ -2969,9 +2972,9 @@
         <v>0.8916666666666667</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117">
       <c r="A117" s="3">
-        <v>45408.0</v>
+        <v>45773.0</v>
       </c>
       <c r="B117" s="4">
         <v>0.1638888888888889</v>
@@ -2992,9 +2995,9 @@
         <v>0.8930555555555556</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118">
       <c r="A118" s="3">
-        <v>45409.0</v>
+        <v>45774.0</v>
       </c>
       <c r="B118" s="4">
         <v>0.16180555555555556</v>
@@ -3015,9 +3018,9 @@
         <v>0.89375</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119">
       <c r="A119" s="3">
-        <v>45410.0</v>
+        <v>45775.0</v>
       </c>
       <c r="B119" s="4">
         <v>0.16041666666666668</v>
@@ -3038,9 +3041,9 @@
         <v>0.8951388888888889</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120">
       <c r="A120" s="3">
-        <v>45411.0</v>
+        <v>45776.0</v>
       </c>
       <c r="B120" s="4">
         <v>0.15902777777777777</v>
@@ -3061,9 +3064,9 @@
         <v>0.8958333333333334</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121">
       <c r="A121" s="3">
-        <v>45412.0</v>
+        <v>45777.0</v>
       </c>
       <c r="B121" s="4">
         <v>0.15763888888888888</v>
@@ -3084,9 +3087,9 @@
         <v>0.8972222222222223</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122">
       <c r="A122" s="3">
-        <v>45413.0</v>
+        <v>45778.0</v>
       </c>
       <c r="B122" s="4">
         <v>0.15625</v>
@@ -3107,9 +3110,9 @@
         <v>0.8979166666666667</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123">
       <c r="A123" s="3">
-        <v>45414.0</v>
+        <v>45779.0</v>
       </c>
       <c r="B123" s="4">
         <v>0.15416666666666667</v>
@@ -3130,9 +3133,9 @@
         <v>0.8993055555555556</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124">
       <c r="A124" s="3">
-        <v>45415.0</v>
+        <v>45780.0</v>
       </c>
       <c r="B124" s="4">
         <v>0.1527777777777778</v>
@@ -3153,9 +3156,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125">
       <c r="A125" s="3">
-        <v>45416.0</v>
+        <v>45781.0</v>
       </c>
       <c r="B125" s="4">
         <v>0.15138888888888888</v>
@@ -3176,9 +3179,9 @@
         <v>0.9013888888888889</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126">
       <c r="A126" s="3">
-        <v>45417.0</v>
+        <v>45782.0</v>
       </c>
       <c r="B126" s="4">
         <v>0.15</v>
@@ -3199,9 +3202,9 @@
         <v>0.9020833333333333</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127">
       <c r="A127" s="3">
-        <v>45418.0</v>
+        <v>45783.0</v>
       </c>
       <c r="B127" s="4">
         <v>0.1486111111111111</v>
@@ -3222,9 +3225,9 @@
         <v>0.9027777777777778</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128">
       <c r="A128" s="3">
-        <v>45419.0</v>
+        <v>45784.0</v>
       </c>
       <c r="B128" s="4">
         <v>0.14722222222222223</v>
@@ -3245,9 +3248,9 @@
         <v>0.9041666666666667</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129">
       <c r="A129" s="3">
-        <v>45420.0</v>
+        <v>45785.0</v>
       </c>
       <c r="B129" s="4">
         <v>0.14583333333333334</v>
@@ -3268,9 +3271,9 @@
         <v>0.9055555555555556</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130">
       <c r="A130" s="3">
-        <v>45421.0</v>
+        <v>45786.0</v>
       </c>
       <c r="B130" s="4">
         <v>0.14444444444444443</v>
@@ -3291,9 +3294,9 @@
         <v>0.9069444444444444</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131">
       <c r="A131" s="3">
-        <v>45422.0</v>
+        <v>45787.0</v>
       </c>
       <c r="B131" s="4">
         <v>0.14305555555555555</v>
@@ -3308,15 +3311,15 @@
         <v>0.7597222222222222</v>
       </c>
       <c r="F131" s="4">
-        <v>0.8638888888888889</v>
+        <v>0.8631944444444445</v>
       </c>
       <c r="G131" s="4">
         <v>0.9083333333333333</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132">
       <c r="A132" s="3">
-        <v>45423.0</v>
+        <v>45788.0</v>
       </c>
       <c r="B132" s="4">
         <v>0.14166666666666666</v>
@@ -3337,9 +3340,9 @@
         <v>0.9097222222222222</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133">
       <c r="A133" s="3">
-        <v>45424.0</v>
+        <v>45789.0</v>
       </c>
       <c r="B133" s="4">
         <v>0.14027777777777778</v>
@@ -3360,9 +3363,9 @@
         <v>0.9111111111111111</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134">
       <c r="A134" s="3">
-        <v>45425.0</v>
+        <v>45790.0</v>
       </c>
       <c r="B134" s="4">
         <v>0.1388888888888889</v>
@@ -3383,9 +3386,9 @@
         <v>0.9118055555555555</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135">
       <c r="A135" s="3">
-        <v>45426.0</v>
+        <v>45791.0</v>
       </c>
       <c r="B135" s="4">
         <v>0.1375</v>
@@ -3406,9 +3409,9 @@
         <v>0.9131944444444444</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136">
       <c r="A136" s="3">
-        <v>45427.0</v>
+        <v>45792.0</v>
       </c>
       <c r="B136" s="4">
         <v>0.1361111111111111</v>
@@ -3429,9 +3432,9 @@
         <v>0.9145833333333333</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137">
       <c r="A137" s="3">
-        <v>45428.0</v>
+        <v>45793.0</v>
       </c>
       <c r="B137" s="4">
         <v>0.13472222222222222</v>
@@ -3452,9 +3455,9 @@
         <v>0.9159722222222222</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138">
       <c r="A138" s="3">
-        <v>45429.0</v>
+        <v>45794.0</v>
       </c>
       <c r="B138" s="4">
         <v>0.13333333333333333</v>
@@ -3475,9 +3478,9 @@
         <v>0.9173611111111111</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139">
       <c r="A139" s="3">
-        <v>45430.0</v>
+        <v>45795.0</v>
       </c>
       <c r="B139" s="4">
         <v>0.1326388888888889</v>
@@ -3498,9 +3501,9 @@
         <v>0.91875</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140">
       <c r="A140" s="3">
-        <v>45431.0</v>
+        <v>45796.0</v>
       </c>
       <c r="B140" s="4">
         <v>0.13125</v>
@@ -3518,12 +3521,12 @@
         <v>0.8729166666666667</v>
       </c>
       <c r="G140" s="4">
-        <v>0.9201388888888888</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" s="3">
-        <v>45432.0</v>
+        <v>45797.0</v>
       </c>
       <c r="B141" s="4">
         <v>0.12986111111111112</v>
@@ -3544,9 +3547,9 @@
         <v>0.9208333333333333</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142">
       <c r="A142" s="3">
-        <v>45433.0</v>
+        <v>45798.0</v>
       </c>
       <c r="B142" s="4">
         <v>0.12916666666666668</v>
@@ -3567,9 +3570,9 @@
         <v>0.9222222222222223</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143">
       <c r="A143" s="3">
-        <v>45434.0</v>
+        <v>45799.0</v>
       </c>
       <c r="B143" s="4">
         <v>0.12777777777777777</v>
@@ -3590,9 +3593,9 @@
         <v>0.9236111111111112</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144">
       <c r="A144" s="3">
-        <v>45435.0</v>
+        <v>45800.0</v>
       </c>
       <c r="B144" s="4">
         <v>0.12638888888888888</v>
@@ -3613,9 +3616,9 @@
         <v>0.9243055555555556</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145">
       <c r="A145" s="3">
-        <v>45436.0</v>
+        <v>45801.0</v>
       </c>
       <c r="B145" s="4">
         <v>0.12569444444444444</v>
@@ -3636,9 +3639,9 @@
         <v>0.9256944444444445</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146">
       <c r="A146" s="3">
-        <v>45437.0</v>
+        <v>45802.0</v>
       </c>
       <c r="B146" s="4">
         <v>0.12430555555555556</v>
@@ -3659,9 +3662,9 @@
         <v>0.9270833333333334</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147">
       <c r="A147" s="3">
-        <v>45438.0</v>
+        <v>45803.0</v>
       </c>
       <c r="B147" s="4">
         <v>0.12361111111111112</v>
@@ -3682,9 +3685,9 @@
         <v>0.9277777777777778</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148">
       <c r="A148" s="3">
-        <v>45439.0</v>
+        <v>45804.0</v>
       </c>
       <c r="B148" s="4">
         <v>0.12291666666666666</v>
@@ -3705,9 +3708,9 @@
         <v>0.9291666666666667</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149">
       <c r="A149" s="3">
-        <v>45440.0</v>
+        <v>45805.0</v>
       </c>
       <c r="B149" s="4">
         <v>0.12152777777777778</v>
@@ -3728,9 +3731,9 @@
         <v>0.9305555555555556</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150">
       <c r="A150" s="3">
-        <v>45441.0</v>
+        <v>45806.0</v>
       </c>
       <c r="B150" s="4">
         <v>0.12083333333333333</v>
@@ -3751,9 +3754,9 @@
         <v>0.93125</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151">
       <c r="A151" s="3">
-        <v>45442.0</v>
+        <v>45807.0</v>
       </c>
       <c r="B151" s="4">
         <v>0.12013888888888889</v>
@@ -3774,12 +3777,12 @@
         <v>0.9326388888888889</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152">
       <c r="A152" s="3">
-        <v>45443.0</v>
+        <v>45808.0</v>
       </c>
       <c r="B152" s="4">
-        <v>0.11944444444444445</v>
+        <v>0.11875</v>
       </c>
       <c r="C152" s="4">
         <v>0.19791666666666666</v>
@@ -3797,9 +3800,9 @@
         <v>0.9333333333333333</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153">
       <c r="A153" s="3">
-        <v>45444.0</v>
+        <v>45809.0</v>
       </c>
       <c r="B153" s="4">
         <v>0.11805555555555555</v>
@@ -3820,9 +3823,9 @@
         <v>0.9347222222222222</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154">
       <c r="A154" s="3">
-        <v>45445.0</v>
+        <v>45810.0</v>
       </c>
       <c r="B154" s="4">
         <v>0.11736111111111111</v>
@@ -3837,15 +3840,15 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="F154" s="4">
-        <v>0.8861111111111111</v>
+        <v>0.8854166666666666</v>
       </c>
       <c r="G154" s="4">
         <v>0.9354166666666667</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155">
       <c r="A155" s="3">
-        <v>45446.0</v>
+        <v>45811.0</v>
       </c>
       <c r="B155" s="4">
         <v>0.11666666666666667</v>
@@ -3866,9 +3869,9 @@
         <v>0.9361111111111111</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156">
       <c r="A156" s="3">
-        <v>45447.0</v>
+        <v>45812.0</v>
       </c>
       <c r="B156" s="4">
         <v>0.11597222222222223</v>
@@ -3889,9 +3892,9 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157">
       <c r="A157" s="3">
-        <v>45448.0</v>
+        <v>45813.0</v>
       </c>
       <c r="B157" s="4">
         <v>0.11527777777777778</v>
@@ -3912,9 +3915,9 @@
         <v>0.9381944444444444</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158">
       <c r="A158" s="3">
-        <v>45449.0</v>
+        <v>45814.0</v>
       </c>
       <c r="B158" s="4">
         <v>0.11458333333333333</v>
@@ -3935,9 +3938,9 @@
         <v>0.9388888888888889</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159">
       <c r="A159" s="3">
-        <v>45450.0</v>
+        <v>45815.0</v>
       </c>
       <c r="B159" s="4">
         <v>0.11388888888888889</v>
@@ -3949,7 +3952,7 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="E159" s="4">
-        <v>0.775</v>
+        <v>0.7743055555555556</v>
       </c>
       <c r="F159" s="4">
         <v>0.8888888888888888</v>
@@ -3958,9 +3961,9 @@
         <v>0.9395833333333333</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160">
       <c r="A160" s="3">
-        <v>45451.0</v>
+        <v>45816.0</v>
       </c>
       <c r="B160" s="4">
         <v>0.11388888888888889</v>
@@ -3981,9 +3984,9 @@
         <v>0.9409722222222222</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161">
       <c r="A161" s="3">
-        <v>45452.0</v>
+        <v>45817.0</v>
       </c>
       <c r="B161" s="4">
         <v>0.11319444444444444</v>
@@ -4004,9 +4007,9 @@
         <v>0.9416666666666667</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162">
       <c r="A162" s="3">
-        <v>45453.0</v>
+        <v>45818.0</v>
       </c>
       <c r="B162" s="4">
         <v>0.1125</v>
@@ -4027,9 +4030,9 @@
         <v>0.9423611111111111</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163">
       <c r="A163" s="3">
-        <v>45454.0</v>
+        <v>45819.0</v>
       </c>
       <c r="B163" s="4">
         <v>0.1125</v>
@@ -4050,9 +4053,9 @@
         <v>0.9430555555555555</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164">
       <c r="A164" s="3">
-        <v>45455.0</v>
+        <v>45820.0</v>
       </c>
       <c r="B164" s="4">
         <v>0.11180555555555556</v>
@@ -4073,9 +4076,9 @@
         <v>0.94375</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165">
       <c r="A165" s="3">
-        <v>45456.0</v>
+        <v>45821.0</v>
       </c>
       <c r="B165" s="4">
         <v>0.1111111111111111</v>
@@ -4096,9 +4099,9 @@
         <v>0.9444444444444444</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166">
       <c r="A166" s="3">
-        <v>45457.0</v>
+        <v>45822.0</v>
       </c>
       <c r="B166" s="4">
         <v>0.1111111111111111</v>
@@ -4119,9 +4122,9 @@
         <v>0.9451388888888889</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167">
       <c r="A167" s="3">
-        <v>45458.0</v>
+        <v>45823.0</v>
       </c>
       <c r="B167" s="4">
         <v>0.11041666666666666</v>
@@ -4142,9 +4145,9 @@
         <v>0.9451388888888889</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168">
       <c r="A168" s="3">
-        <v>45459.0</v>
+        <v>45824.0</v>
       </c>
       <c r="B168" s="4">
         <v>0.11041666666666666</v>
@@ -4165,9 +4168,9 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169">
       <c r="A169" s="3">
-        <v>45460.0</v>
+        <v>45825.0</v>
       </c>
       <c r="B169" s="4">
         <v>0.11041666666666666</v>
@@ -4188,9 +4191,9 @@
         <v>0.9465277777777777</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170">
       <c r="A170" s="3">
-        <v>45461.0</v>
+        <v>45826.0</v>
       </c>
       <c r="B170" s="4">
         <v>0.10972222222222222</v>
@@ -4211,9 +4214,9 @@
         <v>0.9472222222222222</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171">
       <c r="A171" s="3">
-        <v>45462.0</v>
+        <v>45827.0</v>
       </c>
       <c r="B171" s="4">
         <v>0.10972222222222222</v>
@@ -4234,9 +4237,9 @@
         <v>0.9472222222222222</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172">
       <c r="A172" s="3">
-        <v>45463.0</v>
+        <v>45828.0</v>
       </c>
       <c r="B172" s="4">
         <v>0.10972222222222222</v>
@@ -4257,9 +4260,9 @@
         <v>0.9479166666666666</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173">
       <c r="A173" s="3">
-        <v>45464.0</v>
+        <v>45829.0</v>
       </c>
       <c r="B173" s="4">
         <v>0.10972222222222222</v>
@@ -4280,9 +4283,9 @@
         <v>0.9479166666666666</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174">
       <c r="A174" s="3">
-        <v>45465.0</v>
+        <v>45830.0</v>
       </c>
       <c r="B174" s="4">
         <v>0.10972222222222222</v>
@@ -4303,9 +4306,9 @@
         <v>0.9486111111111111</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175">
       <c r="A175" s="3">
-        <v>45466.0</v>
+        <v>45831.0</v>
       </c>
       <c r="B175" s="4">
         <v>0.11041666666666666</v>
@@ -4326,9 +4329,9 @@
         <v>0.9486111111111111</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176">
       <c r="A176" s="3">
-        <v>45467.0</v>
+        <v>45832.0</v>
       </c>
       <c r="B176" s="4">
         <v>0.11041666666666666</v>
@@ -4349,9 +4352,9 @@
         <v>0.9479166666666666</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177">
       <c r="A177" s="3">
-        <v>45468.0</v>
+        <v>45833.0</v>
       </c>
       <c r="B177" s="4">
         <v>0.1111111111111111</v>
@@ -4372,9 +4375,9 @@
         <v>0.9479166666666666</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178">
       <c r="A178" s="3">
-        <v>45469.0</v>
+        <v>45834.0</v>
       </c>
       <c r="B178" s="4">
         <v>0.11180555555555556</v>
@@ -4395,9 +4398,9 @@
         <v>0.9479166666666666</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179">
       <c r="A179" s="3">
-        <v>45470.0</v>
+        <v>45835.0</v>
       </c>
       <c r="B179" s="4">
         <v>0.1125</v>
@@ -4418,9 +4421,9 @@
         <v>0.9472222222222222</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180">
       <c r="A180" s="3">
-        <v>45471.0</v>
+        <v>45836.0</v>
       </c>
       <c r="B180" s="4">
         <v>0.1125</v>
@@ -4441,9 +4444,9 @@
         <v>0.9472222222222222</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181">
       <c r="A181" s="3">
-        <v>45472.0</v>
+        <v>45837.0</v>
       </c>
       <c r="B181" s="4">
         <v>0.11319444444444444</v>
@@ -4464,9 +4467,9 @@
         <v>0.9465277777777777</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182">
       <c r="A182" s="3">
-        <v>45473.0</v>
+        <v>45838.0</v>
       </c>
       <c r="B182" s="4">
         <v>0.11388888888888889</v>
@@ -4487,9 +4490,9 @@
         <v>0.9465277777777777</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183">
       <c r="A183" s="3">
-        <v>45474.0</v>
+        <v>45839.0</v>
       </c>
       <c r="B183" s="4">
         <v>0.11458333333333333</v>
@@ -4501,7 +4504,7 @@
         <v>0.5479166666666667</v>
       </c>
       <c r="E183" s="4">
-        <v>0.7791666666666667</v>
+        <v>0.7784722222222222</v>
       </c>
       <c r="F183" s="4">
         <v>0.89375</v>
@@ -4510,9 +4513,9 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184">
       <c r="A184" s="3">
-        <v>45475.0</v>
+        <v>45840.0</v>
       </c>
       <c r="B184" s="4">
         <v>0.11527777777777778</v>
@@ -4533,9 +4536,9 @@
         <v>0.9451388888888889</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185">
       <c r="A185" s="3">
-        <v>45476.0</v>
+        <v>45841.0</v>
       </c>
       <c r="B185" s="4">
         <v>0.11597222222222223</v>
@@ -4556,9 +4559,9 @@
         <v>0.9451388888888889</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186">
       <c r="A186" s="3">
-        <v>45477.0</v>
+        <v>45842.0</v>
       </c>
       <c r="B186" s="4">
         <v>0.11736111111111111</v>
@@ -4579,9 +4582,9 @@
         <v>0.9444444444444444</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187">
       <c r="A187" s="3">
-        <v>45478.0</v>
+        <v>45843.0</v>
       </c>
       <c r="B187" s="4">
         <v>0.11805555555555555</v>
@@ -4602,9 +4605,9 @@
         <v>0.94375</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188">
       <c r="A188" s="3">
-        <v>45479.0</v>
+        <v>45844.0</v>
       </c>
       <c r="B188" s="4">
         <v>0.11875</v>
@@ -4625,9 +4628,9 @@
         <v>0.9430555555555555</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189">
       <c r="A189" s="3">
-        <v>45480.0</v>
+        <v>45845.0</v>
       </c>
       <c r="B189" s="4">
         <v>0.11944444444444445</v>
@@ -4648,9 +4651,9 @@
         <v>0.9423611111111111</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190">
       <c r="A190" s="3">
-        <v>45481.0</v>
+        <v>45846.0</v>
       </c>
       <c r="B190" s="4">
         <v>0.12083333333333333</v>
@@ -4671,9 +4674,9 @@
         <v>0.9416666666666667</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191">
       <c r="A191" s="3">
-        <v>45482.0</v>
+        <v>45847.0</v>
       </c>
       <c r="B191" s="4">
         <v>0.12152777777777778</v>
@@ -4694,9 +4697,9 @@
         <v>0.9409722222222222</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192">
       <c r="A192" s="3">
-        <v>45483.0</v>
+        <v>45848.0</v>
       </c>
       <c r="B192" s="4">
         <v>0.12222222222222222</v>
@@ -4717,9 +4720,9 @@
         <v>0.9402777777777778</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193">
       <c r="A193" s="3">
-        <v>45484.0</v>
+        <v>45849.0</v>
       </c>
       <c r="B193" s="4">
         <v>0.12361111111111112</v>
@@ -4740,9 +4743,9 @@
         <v>0.9395833333333333</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194">
       <c r="A194" s="3">
-        <v>45485.0</v>
+        <v>45850.0</v>
       </c>
       <c r="B194" s="4">
         <v>0.12430555555555556</v>
@@ -4763,9 +4766,9 @@
         <v>0.9381944444444444</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195">
       <c r="A195" s="3">
-        <v>45486.0</v>
+        <v>45851.0</v>
       </c>
       <c r="B195" s="4">
         <v>0.12569444444444444</v>
@@ -4786,9 +4789,9 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196">
       <c r="A196" s="3">
-        <v>45487.0</v>
+        <v>45852.0</v>
       </c>
       <c r="B196" s="4">
         <v>0.12638888888888888</v>
@@ -4809,9 +4812,9 @@
         <v>0.9368055555555556</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197">
       <c r="A197" s="3">
-        <v>45488.0</v>
+        <v>45853.0</v>
       </c>
       <c r="B197" s="4">
         <v>0.12777777777777777</v>
@@ -4832,9 +4835,9 @@
         <v>0.9361111111111111</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198">
       <c r="A198" s="3">
-        <v>45489.0</v>
+        <v>45854.0</v>
       </c>
       <c r="B198" s="4">
         <v>0.1284722222222222</v>
@@ -4855,9 +4858,9 @@
         <v>0.9347222222222222</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199">
       <c r="A199" s="3">
-        <v>45490.0</v>
+        <v>45855.0</v>
       </c>
       <c r="B199" s="4">
         <v>0.12986111111111112</v>
@@ -4878,9 +4881,9 @@
         <v>0.9340277777777778</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200">
       <c r="A200" s="3">
-        <v>45491.0</v>
+        <v>45856.0</v>
       </c>
       <c r="B200" s="4">
         <v>0.13055555555555556</v>
@@ -4901,9 +4904,9 @@
         <v>0.9326388888888889</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201">
       <c r="A201" s="3">
-        <v>45492.0</v>
+        <v>45857.0</v>
       </c>
       <c r="B201" s="4">
         <v>0.13194444444444445</v>
@@ -4924,9 +4927,9 @@
         <v>0.9319444444444445</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202">
       <c r="A202" s="3">
-        <v>45493.0</v>
+        <v>45858.0</v>
       </c>
       <c r="B202" s="4">
         <v>0.13333333333333333</v>
@@ -4947,9 +4950,9 @@
         <v>0.9305555555555556</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203">
       <c r="A203" s="3">
-        <v>45494.0</v>
+        <v>45859.0</v>
       </c>
       <c r="B203" s="4">
         <v>0.13402777777777777</v>
@@ -4970,9 +4973,9 @@
         <v>0.9298611111111111</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204">
       <c r="A204" s="3">
-        <v>45495.0</v>
+        <v>45860.0</v>
       </c>
       <c r="B204" s="4">
         <v>0.13541666666666666</v>
@@ -4993,9 +4996,9 @@
         <v>0.9284722222222223</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205">
       <c r="A205" s="3">
-        <v>45496.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B205" s="4">
         <v>0.13680555555555557</v>
@@ -5016,12 +5019,12 @@
         <v>0.9270833333333334</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206">
       <c r="A206" s="3">
-        <v>45497.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B206" s="4">
-        <v>0.13819444444444445</v>
+        <v>0.1375</v>
       </c>
       <c r="C206" s="4">
         <v>0.21458333333333332</v>
@@ -5039,9 +5042,9 @@
         <v>0.9263888888888889</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207">
       <c r="A207" s="3">
-        <v>45498.0</v>
+        <v>45863.0</v>
       </c>
       <c r="B207" s="4">
         <v>0.1388888888888889</v>
@@ -5062,9 +5065,9 @@
         <v>0.925</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208">
       <c r="A208" s="3">
-        <v>45499.0</v>
+        <v>45864.0</v>
       </c>
       <c r="B208" s="4">
         <v>0.14027777777777778</v>
@@ -5085,9 +5088,9 @@
         <v>0.9236111111111112</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209">
       <c r="A209" s="3">
-        <v>45500.0</v>
+        <v>45865.0</v>
       </c>
       <c r="B209" s="4">
         <v>0.14166666666666666</v>
@@ -5108,9 +5111,9 @@
         <v>0.9222222222222223</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210">
       <c r="A210" s="3">
-        <v>45501.0</v>
+        <v>45866.0</v>
       </c>
       <c r="B210" s="4">
         <v>0.14305555555555555</v>
@@ -5131,9 +5134,9 @@
         <v>0.9208333333333333</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211">
       <c r="A211" s="3">
-        <v>45502.0</v>
+        <v>45867.0</v>
       </c>
       <c r="B211" s="4">
         <v>0.14375</v>
@@ -5154,9 +5157,9 @@
         <v>0.9194444444444444</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212">
       <c r="A212" s="3">
-        <v>45503.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B212" s="4">
         <v>0.1451388888888889</v>
@@ -5177,9 +5180,9 @@
         <v>0.9180555555555555</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213">
       <c r="A213" s="3">
-        <v>45504.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B213" s="4">
         <v>0.14652777777777778</v>
@@ -5200,9 +5203,9 @@
         <v>0.9166666666666666</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214">
       <c r="A214" s="3">
-        <v>45505.0</v>
+        <v>45870.0</v>
       </c>
       <c r="B214" s="4">
         <v>0.14791666666666667</v>
@@ -5223,9 +5226,9 @@
         <v>0.9152777777777777</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215">
       <c r="A215" s="3">
-        <v>45506.0</v>
+        <v>45871.0</v>
       </c>
       <c r="B215" s="4">
         <v>0.14930555555555555</v>
@@ -5246,9 +5249,9 @@
         <v>0.9138888888888889</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216">
       <c r="A216" s="3">
-        <v>45507.0</v>
+        <v>45872.0</v>
       </c>
       <c r="B216" s="4">
         <v>0.15069444444444444</v>
@@ -5269,9 +5272,9 @@
         <v>0.9125</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217">
       <c r="A217" s="3">
-        <v>45508.0</v>
+        <v>45873.0</v>
       </c>
       <c r="B217" s="4">
         <v>0.15208333333333332</v>
@@ -5292,9 +5295,9 @@
         <v>0.9111111111111111</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218">
       <c r="A218" s="3">
-        <v>45509.0</v>
+        <v>45874.0</v>
       </c>
       <c r="B218" s="4">
         <v>0.15347222222222223</v>
@@ -5315,9 +5318,9 @@
         <v>0.9097222222222222</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219">
       <c r="A219" s="3">
-        <v>45510.0</v>
+        <v>45875.0</v>
       </c>
       <c r="B219" s="4">
         <v>0.15486111111111112</v>
@@ -5338,9 +5341,9 @@
         <v>0.9083333333333333</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220">
       <c r="A220" s="3">
-        <v>45511.0</v>
+        <v>45876.0</v>
       </c>
       <c r="B220" s="4">
         <v>0.15555555555555556</v>
@@ -5361,9 +5364,9 @@
         <v>0.9069444444444444</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221">
       <c r="A221" s="3">
-        <v>45512.0</v>
+        <v>45877.0</v>
       </c>
       <c r="B221" s="4">
         <v>0.15694444444444444</v>
@@ -5384,9 +5387,9 @@
         <v>0.9055555555555556</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222">
       <c r="A222" s="3">
-        <v>45513.0</v>
+        <v>45878.0</v>
       </c>
       <c r="B222" s="4">
         <v>0.15833333333333333</v>
@@ -5407,9 +5410,9 @@
         <v>0.9048611111111111</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223">
       <c r="A223" s="3">
-        <v>45514.0</v>
+        <v>45879.0</v>
       </c>
       <c r="B223" s="4">
         <v>0.1597222222222222</v>
@@ -5430,9 +5433,9 @@
         <v>0.9034722222222222</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224">
       <c r="A224" s="3">
-        <v>45515.0</v>
+        <v>45880.0</v>
       </c>
       <c r="B224" s="4">
         <v>0.16111111111111112</v>
@@ -5453,9 +5456,9 @@
         <v>0.9020833333333333</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225">
       <c r="A225" s="3">
-        <v>45516.0</v>
+        <v>45881.0</v>
       </c>
       <c r="B225" s="4">
         <v>0.1625</v>
@@ -5476,9 +5479,9 @@
         <v>0.9006944444444445</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226">
       <c r="A226" s="3">
-        <v>45517.0</v>
+        <v>45882.0</v>
       </c>
       <c r="B226" s="4">
         <v>0.1638888888888889</v>
@@ -5499,9 +5502,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227">
       <c r="A227" s="3">
-        <v>45518.0</v>
+        <v>45883.0</v>
       </c>
       <c r="B227" s="4">
         <v>0.16527777777777777</v>
@@ -5522,9 +5525,9 @@
         <v>0.8986111111111111</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228">
       <c r="A228" s="3">
-        <v>45519.0</v>
+        <v>45884.0</v>
       </c>
       <c r="B228" s="4">
         <v>0.16666666666666666</v>
@@ -5545,9 +5548,9 @@
         <v>0.8972222222222223</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229">
       <c r="A229" s="3">
-        <v>45520.0</v>
+        <v>45885.0</v>
       </c>
       <c r="B229" s="4">
         <v>0.16805555555555557</v>
@@ -5568,9 +5571,9 @@
         <v>0.8958333333333334</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230">
       <c r="A230" s="3">
-        <v>45521.0</v>
+        <v>45886.0</v>
       </c>
       <c r="B230" s="4">
         <v>0.16875</v>
@@ -5591,9 +5594,9 @@
         <v>0.8944444444444445</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231">
       <c r="A231" s="3">
-        <v>45522.0</v>
+        <v>45887.0</v>
       </c>
       <c r="B231" s="4">
         <v>0.1701388888888889</v>
@@ -5614,9 +5617,9 @@
         <v>0.89375</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232">
       <c r="A232" s="3">
-        <v>45523.0</v>
+        <v>45888.0</v>
       </c>
       <c r="B232" s="4">
         <v>0.17152777777777778</v>
@@ -5637,9 +5640,9 @@
         <v>0.8923611111111112</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233">
       <c r="A233" s="3">
-        <v>45524.0</v>
+        <v>45889.0</v>
       </c>
       <c r="B233" s="4">
         <v>0.17291666666666666</v>
@@ -5660,9 +5663,9 @@
         <v>0.8909722222222223</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234">
       <c r="A234" s="3">
-        <v>45525.0</v>
+        <v>45890.0</v>
       </c>
       <c r="B234" s="4">
         <v>0.17430555555555555</v>
@@ -5683,9 +5686,9 @@
         <v>0.8895833333333333</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235">
       <c r="A235" s="3">
-        <v>45526.0</v>
+        <v>45891.0</v>
       </c>
       <c r="B235" s="4">
         <v>0.17569444444444443</v>
@@ -5706,9 +5709,9 @@
         <v>0.8881944444444444</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236">
       <c r="A236" s="3">
-        <v>45527.0</v>
+        <v>45892.0</v>
       </c>
       <c r="B236" s="4">
         <v>0.17708333333333334</v>
@@ -5729,9 +5732,9 @@
         <v>0.8868055555555555</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237">
       <c r="A237" s="3">
-        <v>45528.0</v>
+        <v>45893.0</v>
       </c>
       <c r="B237" s="4">
         <v>0.17847222222222223</v>
@@ -5752,9 +5755,9 @@
         <v>0.8854166666666666</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238">
       <c r="A238" s="3">
-        <v>45529.0</v>
+        <v>45894.0</v>
       </c>
       <c r="B238" s="4">
         <v>0.1798611111111111</v>
@@ -5775,9 +5778,9 @@
         <v>0.8840277777777777</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239">
       <c r="A239" s="3">
-        <v>45530.0</v>
+        <v>45895.0</v>
       </c>
       <c r="B239" s="4">
         <v>0.18125</v>
@@ -5798,9 +5801,9 @@
         <v>0.8826388888888889</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240">
       <c r="A240" s="3">
-        <v>45531.0</v>
+        <v>45896.0</v>
       </c>
       <c r="B240" s="4">
         <v>0.18263888888888888</v>
@@ -5821,9 +5824,9 @@
         <v>0.88125</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241">
       <c r="A241" s="3">
-        <v>45532.0</v>
+        <v>45897.0</v>
       </c>
       <c r="B241" s="4">
         <v>0.1840277777777778</v>
@@ -5844,9 +5847,9 @@
         <v>0.8798611111111111</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242">
       <c r="A242" s="3">
-        <v>45533.0</v>
+        <v>45898.0</v>
       </c>
       <c r="B242" s="4">
         <v>0.18472222222222223</v>
@@ -5867,9 +5870,9 @@
         <v>0.8784722222222222</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243">
       <c r="A243" s="3">
-        <v>45534.0</v>
+        <v>45899.0</v>
       </c>
       <c r="B243" s="4">
         <v>0.18611111111111112</v>
@@ -5890,9 +5893,9 @@
         <v>0.8770833333333333</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244">
       <c r="A244" s="3">
-        <v>45535.0</v>
+        <v>45900.0</v>
       </c>
       <c r="B244" s="4">
         <v>0.1875</v>
@@ -5913,9 +5916,9 @@
         <v>0.8756944444444444</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245">
       <c r="A245" s="3">
-        <v>45536.0</v>
+        <v>45901.0</v>
       </c>
       <c r="B245" s="4">
         <v>0.18888888888888888</v>
@@ -5936,9 +5939,9 @@
         <v>0.8743055555555556</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246">
       <c r="A246" s="3">
-        <v>45537.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B246" s="4">
         <v>0.19027777777777777</v>
@@ -5959,9 +5962,9 @@
         <v>0.8729166666666667</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247">
       <c r="A247" s="3">
-        <v>45538.0</v>
+        <v>45903.0</v>
       </c>
       <c r="B247" s="4">
         <v>0.19166666666666668</v>
@@ -5982,9 +5985,9 @@
         <v>0.8715277777777778</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248">
       <c r="A248" s="3">
-        <v>45539.0</v>
+        <v>45904.0</v>
       </c>
       <c r="B248" s="4">
         <v>0.19305555555555556</v>
@@ -6005,9 +6008,9 @@
         <v>0.8701388888888889</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249">
       <c r="A249" s="3">
-        <v>45540.0</v>
+        <v>45905.0</v>
       </c>
       <c r="B249" s="4">
         <v>0.19444444444444445</v>
@@ -6028,9 +6031,9 @@
         <v>0.86875</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250">
       <c r="A250" s="3">
-        <v>45541.0</v>
+        <v>45906.0</v>
       </c>
       <c r="B250" s="4">
         <v>0.19583333333333333</v>
@@ -6051,9 +6054,9 @@
         <v>0.8673611111111111</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251">
       <c r="A251" s="3">
-        <v>45542.0</v>
+        <v>45907.0</v>
       </c>
       <c r="B251" s="4">
         <v>0.19722222222222222</v>
@@ -6074,9 +6077,9 @@
         <v>0.8659722222222223</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252">
       <c r="A252" s="3">
-        <v>45543.0</v>
+        <v>45908.0</v>
       </c>
       <c r="B252" s="4">
         <v>0.1986111111111111</v>
@@ -6097,9 +6100,9 @@
         <v>0.8638888888888889</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253">
       <c r="A253" s="3">
-        <v>45544.0</v>
+        <v>45909.0</v>
       </c>
       <c r="B253" s="4">
         <v>0.2</v>
@@ -6120,9 +6123,9 @@
         <v>0.8625</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254">
       <c r="A254" s="3">
-        <v>45545.0</v>
+        <v>45910.0</v>
       </c>
       <c r="B254" s="4">
         <v>0.20069444444444445</v>
@@ -6143,9 +6146,9 @@
         <v>0.8611111111111112</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255">
       <c r="A255" s="3">
-        <v>45546.0</v>
+        <v>45911.0</v>
       </c>
       <c r="B255" s="4">
         <v>0.20208333333333334</v>
@@ -6166,9 +6169,9 @@
         <v>0.8597222222222223</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256">
       <c r="A256" s="3">
-        <v>45547.0</v>
+        <v>45912.0</v>
       </c>
       <c r="B256" s="4">
         <v>0.20347222222222222</v>
@@ -6189,9 +6192,9 @@
         <v>0.8583333333333333</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257">
       <c r="A257" s="3">
-        <v>45548.0</v>
+        <v>45913.0</v>
       </c>
       <c r="B257" s="4">
         <v>0.2048611111111111</v>
@@ -6212,9 +6215,9 @@
         <v>0.8569444444444444</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258">
       <c r="A258" s="3">
-        <v>45549.0</v>
+        <v>45914.0</v>
       </c>
       <c r="B258" s="4">
         <v>0.20625</v>
@@ -6235,9 +6238,9 @@
         <v>0.8555555555555555</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259">
       <c r="A259" s="3">
-        <v>45550.0</v>
+        <v>45915.0</v>
       </c>
       <c r="B259" s="4">
         <v>0.2076388888888889</v>
@@ -6258,9 +6261,9 @@
         <v>0.8541666666666666</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260">
       <c r="A260" s="3">
-        <v>45551.0</v>
+        <v>45916.0</v>
       </c>
       <c r="B260" s="4">
         <v>0.20902777777777778</v>
@@ -6281,9 +6284,9 @@
         <v>0.8520833333333333</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261">
       <c r="A261" s="3">
-        <v>45552.0</v>
+        <v>45917.0</v>
       </c>
       <c r="B261" s="4">
         <v>0.21041666666666667</v>
@@ -6304,9 +6307,9 @@
         <v>0.8506944444444444</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262">
       <c r="A262" s="3">
-        <v>45553.0</v>
+        <v>45918.0</v>
       </c>
       <c r="B262" s="4">
         <v>0.21180555555555555</v>
@@ -6327,9 +6330,9 @@
         <v>0.8493055555555555</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263">
       <c r="A263" s="3">
-        <v>45554.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B263" s="4">
         <v>0.21319444444444444</v>
@@ -6350,9 +6353,9 @@
         <v>0.8479166666666667</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264">
       <c r="A264" s="3">
-        <v>45555.0</v>
+        <v>45920.0</v>
       </c>
       <c r="B264" s="4">
         <v>0.21458333333333332</v>
@@ -6373,9 +6376,9 @@
         <v>0.8465277777777778</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265">
       <c r="A265" s="3">
-        <v>45556.0</v>
+        <v>45921.0</v>
       </c>
       <c r="B265" s="4">
         <v>0.21597222222222223</v>
@@ -6396,9 +6399,9 @@
         <v>0.8451388888888889</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266">
       <c r="A266" s="3">
-        <v>45557.0</v>
+        <v>45922.0</v>
       </c>
       <c r="B266" s="4">
         <v>0.21736111111111112</v>
@@ -6419,9 +6422,9 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267">
       <c r="A267" s="3">
-        <v>45558.0</v>
+        <v>45923.0</v>
       </c>
       <c r="B267" s="4">
         <v>0.21805555555555556</v>
@@ -6442,9 +6445,9 @@
         <v>0.8423611111111111</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268">
       <c r="A268" s="3">
-        <v>45559.0</v>
+        <v>45924.0</v>
       </c>
       <c r="B268" s="4">
         <v>0.21944444444444444</v>
@@ -6465,9 +6468,9 @@
         <v>0.8402777777777778</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269">
       <c r="A269" s="3">
-        <v>45560.0</v>
+        <v>45925.0</v>
       </c>
       <c r="B269" s="4">
         <v>0.22013888888888888</v>
@@ -6488,9 +6491,9 @@
         <v>0.8388888888888889</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270">
       <c r="A270" s="3">
-        <v>45561.0</v>
+        <v>45926.0</v>
       </c>
       <c r="B270" s="4">
         <v>0.22152777777777777</v>
@@ -6511,9 +6514,9 @@
         <v>0.8375</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271">
       <c r="A271" s="3">
-        <v>45562.0</v>
+        <v>45927.0</v>
       </c>
       <c r="B271" s="4">
         <v>0.2222222222222222</v>
@@ -6534,9 +6537,9 @@
         <v>0.8361111111111111</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272">
       <c r="A272" s="3">
-        <v>45563.0</v>
+        <v>45928.0</v>
       </c>
       <c r="B272" s="4">
         <v>0.22361111111111112</v>
@@ -6557,9 +6560,9 @@
         <v>0.8347222222222223</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273">
       <c r="A273" s="3">
-        <v>45564.0</v>
+        <v>45929.0</v>
       </c>
       <c r="B273" s="4">
         <v>0.22430555555555556</v>
@@ -6580,9 +6583,9 @@
         <v>0.8333333333333334</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274">
       <c r="A274" s="3">
-        <v>45565.0</v>
+        <v>45930.0</v>
       </c>
       <c r="B274" s="4">
         <v>0.22569444444444445</v>
@@ -6603,9 +6606,9 @@
         <v>0.8319444444444445</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275">
       <c r="A275" s="3">
-        <v>45566.0</v>
+        <v>45931.0</v>
       </c>
       <c r="B275" s="4">
         <v>0.22708333333333333</v>
@@ -6626,9 +6629,9 @@
         <v>0.8305555555555556</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276">
       <c r="A276" s="3">
-        <v>45567.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B276" s="4">
         <v>0.22777777777777777</v>
@@ -6649,9 +6652,9 @@
         <v>0.8291666666666667</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277">
       <c r="A277" s="3">
-        <v>45568.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B277" s="4">
         <v>0.22916666666666666</v>
@@ -6672,9 +6675,9 @@
         <v>0.8277777777777777</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278">
       <c r="A278" s="3">
-        <v>45569.0</v>
+        <v>45934.0</v>
       </c>
       <c r="B278" s="4">
         <v>0.2298611111111111</v>
@@ -6695,9 +6698,9 @@
         <v>0.8263888888888888</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279">
       <c r="A279" s="3">
-        <v>45570.0</v>
+        <v>45935.0</v>
       </c>
       <c r="B279" s="4">
         <v>0.23125</v>
@@ -6718,9 +6721,9 @@
         <v>0.825</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280">
       <c r="A280" s="3">
-        <v>45571.0</v>
+        <v>45936.0</v>
       </c>
       <c r="B280" s="4">
         <v>0.2326388888888889</v>
@@ -6741,9 +6744,9 @@
         <v>0.8229166666666666</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281">
       <c r="A281" s="3">
-        <v>45572.0</v>
+        <v>45937.0</v>
       </c>
       <c r="B281" s="4">
         <v>0.23333333333333334</v>
@@ -6764,9 +6767,9 @@
         <v>0.8215277777777777</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282">
       <c r="A282" s="3">
-        <v>45573.0</v>
+        <v>45938.0</v>
       </c>
       <c r="B282" s="4">
         <v>0.23472222222222222</v>
@@ -6787,9 +6790,9 @@
         <v>0.8201388888888889</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283">
       <c r="A283" s="3">
-        <v>45574.0</v>
+        <v>45939.0</v>
       </c>
       <c r="B283" s="4">
         <v>0.2361111111111111</v>
@@ -6810,9 +6813,9 @@
         <v>0.81875</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284">
       <c r="A284" s="3">
-        <v>45575.0</v>
+        <v>45940.0</v>
       </c>
       <c r="B284" s="4">
         <v>0.23680555555555555</v>
@@ -6833,9 +6836,9 @@
         <v>0.8173611111111111</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285">
       <c r="A285" s="3">
-        <v>45576.0</v>
+        <v>45941.0</v>
       </c>
       <c r="B285" s="4">
         <v>0.23819444444444443</v>
@@ -6856,9 +6859,9 @@
         <v>0.8159722222222222</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286">
       <c r="A286" s="3">
-        <v>45577.0</v>
+        <v>45942.0</v>
       </c>
       <c r="B286" s="4">
         <v>0.2388888888888889</v>
@@ -6879,9 +6882,9 @@
         <v>0.8145833333333333</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287">
       <c r="A287" s="3">
-        <v>45578.0</v>
+        <v>45943.0</v>
       </c>
       <c r="B287" s="4">
         <v>0.24027777777777778</v>
@@ -6902,9 +6905,9 @@
         <v>0.8131944444444444</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288">
       <c r="A288" s="3">
-        <v>45579.0</v>
+        <v>45944.0</v>
       </c>
       <c r="B288" s="4">
         <v>0.24166666666666667</v>
@@ -6925,9 +6928,9 @@
         <v>0.8118055555555556</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289">
       <c r="A289" s="3">
-        <v>45580.0</v>
+        <v>45945.0</v>
       </c>
       <c r="B289" s="4">
         <v>0.2423611111111111</v>
@@ -6945,12 +6948,12 @@
         <v>0.7555555555555555</v>
       </c>
       <c r="G289" s="4">
-        <v>0.8111111111111111</v>
-      </c>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
+        <v>0.8104166666666667</v>
+      </c>
+    </row>
+    <row r="290">
       <c r="A290" s="3">
-        <v>45581.0</v>
+        <v>45946.0</v>
       </c>
       <c r="B290" s="4">
         <v>0.24375</v>
@@ -6971,9 +6974,9 @@
         <v>0.8097222222222222</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291">
       <c r="A291" s="3">
-        <v>45582.0</v>
+        <v>45947.0</v>
       </c>
       <c r="B291" s="4">
         <v>0.24513888888888888</v>
@@ -6994,9 +6997,9 @@
         <v>0.8083333333333333</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292">
       <c r="A292" s="3">
-        <v>45583.0</v>
+        <v>45948.0</v>
       </c>
       <c r="B292" s="4">
         <v>0.24583333333333332</v>
@@ -7017,9 +7020,9 @@
         <v>0.8069444444444445</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293">
       <c r="A293" s="3">
-        <v>45584.0</v>
+        <v>45949.0</v>
       </c>
       <c r="B293" s="4">
         <v>0.24722222222222223</v>
@@ -7040,9 +7043,9 @@
         <v>0.8055555555555556</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294">
       <c r="A294" s="3">
-        <v>45585.0</v>
+        <v>45950.0</v>
       </c>
       <c r="B294" s="4">
         <v>0.24861111111111112</v>
@@ -7063,9 +7066,9 @@
         <v>0.8041666666666667</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295">
       <c r="A295" s="3">
-        <v>45586.0</v>
+        <v>45951.0</v>
       </c>
       <c r="B295" s="4">
         <v>0.24930555555555556</v>
@@ -7086,9 +7089,9 @@
         <v>0.8027777777777778</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296">
       <c r="A296" s="3">
-        <v>45587.0</v>
+        <v>45952.0</v>
       </c>
       <c r="B296" s="4">
         <v>0.25069444444444444</v>
@@ -7109,9 +7112,9 @@
         <v>0.8013888888888889</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297">
       <c r="A297" s="3">
-        <v>45588.0</v>
+        <v>45953.0</v>
       </c>
       <c r="B297" s="4">
         <v>0.2520833333333333</v>
@@ -7132,9 +7135,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298">
       <c r="A298" s="3">
-        <v>45589.0</v>
+        <v>45954.0</v>
       </c>
       <c r="B298" s="4">
         <v>0.25277777777777777</v>
@@ -7155,9 +7158,9 @@
         <v>0.7993055555555556</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299">
       <c r="A299" s="3">
-        <v>45590.0</v>
+        <v>45955.0</v>
       </c>
       <c r="B299" s="4">
         <v>0.25416666666666665</v>
@@ -7178,9 +7181,9 @@
         <v>0.7979166666666667</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300">
       <c r="A300" s="3">
-        <v>45591.0</v>
+        <v>45956.0</v>
       </c>
       <c r="B300" s="4">
         <v>0.21388888888888888</v>
@@ -7201,9 +7204,9 @@
         <v>0.7548611111111111</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301">
       <c r="A301" s="3">
-        <v>45592.0</v>
+        <v>45957.0</v>
       </c>
       <c r="B301" s="4">
         <v>0.2152777777777778</v>
@@ -7224,9 +7227,9 @@
         <v>0.7534722222222222</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302">
       <c r="A302" s="3">
-        <v>45593.0</v>
+        <v>45958.0</v>
       </c>
       <c r="B302" s="4">
         <v>0.21597222222222223</v>
@@ -7247,9 +7250,9 @@
         <v>0.7527777777777778</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303">
       <c r="A303" s="3">
-        <v>45594.0</v>
+        <v>45959.0</v>
       </c>
       <c r="B303" s="4">
         <v>0.21736111111111112</v>
@@ -7270,9 +7273,9 @@
         <v>0.7513888888888889</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304">
       <c r="A304" s="3">
-        <v>45595.0</v>
+        <v>45960.0</v>
       </c>
       <c r="B304" s="4">
         <v>0.21875</v>
@@ -7293,9 +7296,9 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305">
       <c r="A305" s="3">
-        <v>45596.0</v>
+        <v>45961.0</v>
       </c>
       <c r="B305" s="4">
         <v>0.21944444444444444</v>
@@ -7316,9 +7319,9 @@
         <v>0.7493055555555556</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306">
       <c r="A306" s="3">
-        <v>45597.0</v>
+        <v>45962.0</v>
       </c>
       <c r="B306" s="4">
         <v>0.22083333333333333</v>
@@ -7339,9 +7342,9 @@
         <v>0.7479166666666667</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307">
       <c r="A307" s="3">
-        <v>45598.0</v>
+        <v>45963.0</v>
       </c>
       <c r="B307" s="4">
         <v>0.2222222222222222</v>
@@ -7362,9 +7365,9 @@
         <v>0.7465277777777778</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308">
       <c r="A308" s="3">
-        <v>45599.0</v>
+        <v>45964.0</v>
       </c>
       <c r="B308" s="4">
         <v>0.22361111111111112</v>
@@ -7385,9 +7388,9 @@
         <v>0.7458333333333333</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309">
       <c r="A309" s="3">
-        <v>45600.0</v>
+        <v>45965.0</v>
       </c>
       <c r="B309" s="4">
         <v>0.22430555555555556</v>
@@ -7408,9 +7411,9 @@
         <v>0.7444444444444445</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310">
       <c r="A310" s="3">
-        <v>45601.0</v>
+        <v>45966.0</v>
       </c>
       <c r="B310" s="4">
         <v>0.22569444444444445</v>
@@ -7431,15 +7434,15 @@
         <v>0.74375</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311">
       <c r="A311" s="3">
-        <v>45602.0</v>
+        <v>45967.0</v>
       </c>
       <c r="B311" s="4">
         <v>0.22708333333333333</v>
       </c>
       <c r="C311" s="4">
-        <v>0.2951388888888889</v>
+        <v>0.29444444444444445</v>
       </c>
       <c r="D311" s="4">
         <v>0.49166666666666664</v>
@@ -7454,9 +7457,9 @@
         <v>0.7423611111111111</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312">
       <c r="A312" s="3">
-        <v>45603.0</v>
+        <v>45968.0</v>
       </c>
       <c r="B312" s="4">
         <v>0.22777777777777777</v>
@@ -7477,9 +7480,9 @@
         <v>0.7416666666666667</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313">
       <c r="A313" s="3">
-        <v>45604.0</v>
+        <v>45969.0</v>
       </c>
       <c r="B313" s="4">
         <v>0.22916666666666666</v>
@@ -7500,9 +7503,9 @@
         <v>0.7409722222222223</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314">
       <c r="A314" s="3">
-        <v>45605.0</v>
+        <v>45970.0</v>
       </c>
       <c r="B314" s="4">
         <v>0.23055555555555557</v>
@@ -7523,9 +7526,9 @@
         <v>0.7395833333333334</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315">
       <c r="A315" s="3">
-        <v>45606.0</v>
+        <v>45971.0</v>
       </c>
       <c r="B315" s="4">
         <v>0.23194444444444445</v>
@@ -7546,9 +7549,9 @@
         <v>0.7388888888888889</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316">
       <c r="A316" s="3">
-        <v>45607.0</v>
+        <v>45972.0</v>
       </c>
       <c r="B316" s="4">
         <v>0.2326388888888889</v>
@@ -7569,9 +7572,9 @@
         <v>0.7375</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317">
       <c r="A317" s="3">
-        <v>45608.0</v>
+        <v>45973.0</v>
       </c>
       <c r="B317" s="4">
         <v>0.23402777777777778</v>
@@ -7592,9 +7595,9 @@
         <v>0.7368055555555556</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318">
       <c r="A318" s="3">
-        <v>45609.0</v>
+        <v>45974.0</v>
       </c>
       <c r="B318" s="4">
         <v>0.23541666666666666</v>
@@ -7615,9 +7618,9 @@
         <v>0.7361111111111112</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319">
       <c r="A319" s="3">
-        <v>45610.0</v>
+        <v>45975.0</v>
       </c>
       <c r="B319" s="4">
         <v>0.2361111111111111</v>
@@ -7638,9 +7641,9 @@
         <v>0.7354166666666667</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320">
       <c r="A320" s="3">
-        <v>45611.0</v>
+        <v>45976.0</v>
       </c>
       <c r="B320" s="4">
         <v>0.2375</v>
@@ -7661,9 +7664,9 @@
         <v>0.7347222222222223</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321">
       <c r="A321" s="3">
-        <v>45612.0</v>
+        <v>45977.0</v>
       </c>
       <c r="B321" s="4">
         <v>0.2388888888888889</v>
@@ -7684,9 +7687,9 @@
         <v>0.7333333333333333</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322">
       <c r="A322" s="3">
-        <v>45613.0</v>
+        <v>45978.0</v>
       </c>
       <c r="B322" s="4">
         <v>0.23958333333333334</v>
@@ -7707,9 +7710,9 @@
         <v>0.7326388888888888</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323">
       <c r="A323" s="3">
-        <v>45614.0</v>
+        <v>45979.0</v>
       </c>
       <c r="B323" s="4">
         <v>0.24097222222222223</v>
@@ -7730,12 +7733,12 @@
         <v>0.7319444444444444</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324">
       <c r="A324" s="3">
-        <v>45615.0</v>
+        <v>45980.0</v>
       </c>
       <c r="B324" s="4">
-        <v>0.2423611111111111</v>
+        <v>0.24166666666666667</v>
       </c>
       <c r="C324" s="4">
         <v>0.3111111111111111</v>
@@ -7753,9 +7756,9 @@
         <v>0.73125</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325">
       <c r="A325" s="3">
-        <v>45616.0</v>
+        <v>45981.0</v>
       </c>
       <c r="B325" s="4">
         <v>0.24305555555555555</v>
@@ -7776,9 +7779,9 @@
         <v>0.7305555555555555</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326">
       <c r="A326" s="3">
-        <v>45617.0</v>
+        <v>45982.0</v>
       </c>
       <c r="B326" s="4">
         <v>0.24444444444444444</v>
@@ -7799,9 +7802,9 @@
         <v>0.7298611111111111</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327">
       <c r="A327" s="3">
-        <v>45618.0</v>
+        <v>45983.0</v>
       </c>
       <c r="B327" s="4">
         <v>0.24513888888888888</v>
@@ -7822,9 +7825,9 @@
         <v>0.7298611111111111</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328">
       <c r="A328" s="3">
-        <v>45619.0</v>
+        <v>45984.0</v>
       </c>
       <c r="B328" s="4">
         <v>0.2465277777777778</v>
@@ -7845,9 +7848,9 @@
         <v>0.7291666666666666</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329">
       <c r="A329" s="3">
-        <v>45620.0</v>
+        <v>45985.0</v>
       </c>
       <c r="B329" s="4">
         <v>0.24722222222222223</v>
@@ -7868,9 +7871,9 @@
         <v>0.7284722222222222</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330">
       <c r="A330" s="3">
-        <v>45621.0</v>
+        <v>45986.0</v>
       </c>
       <c r="B330" s="4">
         <v>0.24861111111111112</v>
@@ -7885,15 +7888,15 @@
         <v>0.5888888888888889</v>
       </c>
       <c r="F330" s="4">
-        <v>0.6659722222222222</v>
+        <v>0.6652777777777777</v>
       </c>
       <c r="G330" s="4">
         <v>0.7277777777777777</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331">
       <c r="A331" s="3">
-        <v>45622.0</v>
+        <v>45987.0</v>
       </c>
       <c r="B331" s="4">
         <v>0.24930555555555556</v>
@@ -7914,9 +7917,9 @@
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332">
       <c r="A332" s="3">
-        <v>45623.0</v>
+        <v>45988.0</v>
       </c>
       <c r="B332" s="4">
         <v>0.25069444444444444</v>
@@ -7937,9 +7940,9 @@
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333">
       <c r="A333" s="3">
-        <v>45624.0</v>
+        <v>45989.0</v>
       </c>
       <c r="B333" s="4">
         <v>0.2513888888888889</v>
@@ -7960,9 +7963,9 @@
         <v>0.7263888888888889</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334">
       <c r="A334" s="3">
-        <v>45625.0</v>
+        <v>45990.0</v>
       </c>
       <c r="B334" s="4">
         <v>0.25277777777777777</v>
@@ -7983,9 +7986,9 @@
         <v>0.7263888888888889</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335">
       <c r="A335" s="3">
-        <v>45626.0</v>
+        <v>45991.0</v>
       </c>
       <c r="B335" s="4">
         <v>0.2534722222222222</v>
@@ -8006,15 +8009,15 @@
         <v>0.7256944444444444</v>
       </c>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336">
       <c r="A336" s="3">
-        <v>45627.0</v>
+        <v>45992.0</v>
       </c>
       <c r="B336" s="4">
         <v>0.25416666666666665</v>
       </c>
       <c r="C336" s="4">
-        <v>0.32430555555555557</v>
+        <v>0.3236111111111111</v>
       </c>
       <c r="D336" s="4">
         <v>0.49583333333333335</v>
@@ -8029,9 +8032,9 @@
         <v>0.7256944444444444</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337">
       <c r="A337" s="3">
-        <v>45628.0</v>
+        <v>45993.0</v>
       </c>
       <c r="B337" s="4">
         <v>0.25555555555555554</v>
@@ -8052,9 +8055,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338">
       <c r="A338" s="3">
-        <v>45629.0</v>
+        <v>45994.0</v>
       </c>
       <c r="B338" s="4">
         <v>0.25625</v>
@@ -8075,9 +8078,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339">
       <c r="A339" s="3">
-        <v>45630.0</v>
+        <v>45995.0</v>
       </c>
       <c r="B339" s="4">
         <v>0.2569444444444444</v>
@@ -8098,9 +8101,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340">
       <c r="A340" s="3">
-        <v>45631.0</v>
+        <v>45996.0</v>
       </c>
       <c r="B340" s="4">
         <v>0.25763888888888886</v>
@@ -8121,9 +8124,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341">
       <c r="A341" s="3">
-        <v>45632.0</v>
+        <v>45997.0</v>
       </c>
       <c r="B341" s="4">
         <v>0.2590277777777778</v>
@@ -8141,12 +8144,12 @@
         <v>0.6604166666666667</v>
       </c>
       <c r="G341" s="4">
-        <v>0.725</v>
-      </c>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
+        <v>0.7243055555555555</v>
+      </c>
+    </row>
+    <row r="342">
       <c r="A342" s="3">
-        <v>45633.0</v>
+        <v>45998.0</v>
       </c>
       <c r="B342" s="4">
         <v>0.25972222222222224</v>
@@ -8167,9 +8170,9 @@
         <v>0.7243055555555555</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343">
       <c r="A343" s="3">
-        <v>45634.0</v>
+        <v>45999.0</v>
       </c>
       <c r="B343" s="4">
         <v>0.2604166666666667</v>
@@ -8184,15 +8187,15 @@
         <v>0.5840277777777778</v>
       </c>
       <c r="F343" s="4">
-        <v>0.6604166666666667</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="G343" s="4">
         <v>0.7243055555555555</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344">
       <c r="A344" s="3">
-        <v>45635.0</v>
+        <v>46000.0</v>
       </c>
       <c r="B344" s="4">
         <v>0.2611111111111111</v>
@@ -8213,9 +8216,9 @@
         <v>0.7243055555555555</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345">
       <c r="A345" s="3">
-        <v>45636.0</v>
+        <v>46001.0</v>
       </c>
       <c r="B345" s="4">
         <v>0.26180555555555557</v>
@@ -8236,9 +8239,9 @@
         <v>0.7243055555555555</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346">
       <c r="A346" s="3">
-        <v>45637.0</v>
+        <v>46002.0</v>
       </c>
       <c r="B346" s="4">
         <v>0.2625</v>
@@ -8259,9 +8262,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347">
       <c r="A347" s="3">
-        <v>45638.0</v>
+        <v>46003.0</v>
       </c>
       <c r="B347" s="4">
         <v>0.26319444444444445</v>
@@ -8282,9 +8285,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348">
       <c r="A348" s="3">
-        <v>45639.0</v>
+        <v>46004.0</v>
       </c>
       <c r="B348" s="4">
         <v>0.2638888888888889</v>
@@ -8305,9 +8308,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349">
       <c r="A349" s="3">
-        <v>45640.0</v>
+        <v>46005.0</v>
       </c>
       <c r="B349" s="4">
         <v>0.2638888888888889</v>
@@ -8328,9 +8331,9 @@
         <v>0.725</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350">
       <c r="A350" s="3">
-        <v>45641.0</v>
+        <v>46006.0</v>
       </c>
       <c r="B350" s="4">
         <v>0.26458333333333334</v>
@@ -8351,9 +8354,9 @@
         <v>0.7256944444444444</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351">
       <c r="A351" s="3">
-        <v>45642.0</v>
+        <v>46007.0</v>
       </c>
       <c r="B351" s="4">
         <v>0.2652777777777778</v>
@@ -8374,9 +8377,9 @@
         <v>0.7256944444444444</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352">
       <c r="A352" s="3">
-        <v>45643.0</v>
+        <v>46008.0</v>
       </c>
       <c r="B352" s="4">
         <v>0.2652777777777778</v>
@@ -8397,9 +8400,9 @@
         <v>0.7263888888888889</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353">
       <c r="A353" s="3">
-        <v>45644.0</v>
+        <v>46009.0</v>
       </c>
       <c r="B353" s="4">
         <v>0.2659722222222222</v>
@@ -8420,9 +8423,9 @@
         <v>0.7263888888888889</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354">
       <c r="A354" s="3">
-        <v>45645.0</v>
+        <v>46010.0</v>
       </c>
       <c r="B354" s="4">
         <v>0.26666666666666666</v>
@@ -8443,9 +8446,9 @@
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355">
       <c r="A355" s="3">
-        <v>45646.0</v>
+        <v>46011.0</v>
       </c>
       <c r="B355" s="4">
         <v>0.26666666666666666</v>
@@ -8466,9 +8469,9 @@
         <v>0.7270833333333333</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356">
       <c r="A356" s="3">
-        <v>45647.0</v>
+        <v>46012.0</v>
       </c>
       <c r="B356" s="4">
         <v>0.2673611111111111</v>
@@ -8489,9 +8492,9 @@
         <v>0.7277777777777777</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357">
       <c r="A357" s="3">
-        <v>45648.0</v>
+        <v>46013.0</v>
       </c>
       <c r="B357" s="4">
         <v>0.2673611111111111</v>
@@ -8512,9 +8515,9 @@
         <v>0.7284722222222222</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358">
       <c r="A358" s="3">
-        <v>45649.0</v>
+        <v>46014.0</v>
       </c>
       <c r="B358" s="4">
         <v>0.26805555555555555</v>
@@ -8535,9 +8538,9 @@
         <v>0.7284722222222222</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359">
       <c r="A359" s="3">
-        <v>45650.0</v>
+        <v>46015.0</v>
       </c>
       <c r="B359" s="4">
         <v>0.26805555555555555</v>
@@ -8558,9 +8561,9 @@
         <v>0.7284722222222222</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360">
       <c r="A360" s="3">
-        <v>45651.0</v>
+        <v>46016.0</v>
       </c>
       <c r="B360" s="4">
         <v>0.26875</v>
@@ -8581,9 +8584,9 @@
         <v>0.7291666666666666</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361">
       <c r="A361" s="3">
-        <v>45652.0</v>
+        <v>46017.0</v>
       </c>
       <c r="B361" s="4">
         <v>0.26875</v>
@@ -8604,9 +8607,9 @@
         <v>0.7291666666666666</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362">
       <c r="A362" s="3">
-        <v>45653.0</v>
+        <v>46018.0</v>
       </c>
       <c r="B362" s="4">
         <v>0.26875</v>
@@ -8627,9 +8630,9 @@
         <v>0.7298611111111111</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363">
       <c r="A363" s="3">
-        <v>45654.0</v>
+        <v>46019.0</v>
       </c>
       <c r="B363" s="4">
         <v>0.26875</v>
@@ -8650,9 +8653,9 @@
         <v>0.7305555555555555</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364">
       <c r="A364" s="3">
-        <v>45655.0</v>
+        <v>46020.0</v>
       </c>
       <c r="B364" s="4">
         <v>0.26944444444444443</v>
@@ -8673,9 +8676,9 @@
         <v>0.7305555555555555</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365">
       <c r="A365" s="3">
-        <v>45656.0</v>
+        <v>46021.0</v>
       </c>
       <c r="B365" s="4">
         <v>0.26944444444444443</v>
@@ -8696,9 +8699,9 @@
         <v>0.73125</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366">
       <c r="A366" s="3">
-        <v>45657.0</v>
+        <v>46022.0</v>
       </c>
       <c r="B366" s="4">
         <v>0.26944444444444443</v>
@@ -8716,29 +8719,6 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G366" s="4">
-        <v>0.7319444444444444</v>
-      </c>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="3">
-        <v>45657.0</v>
-      </c>
-      <c r="B367" s="4">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="C367" s="4">
-        <v>0.33958333333333335</v>
-      </c>
-      <c r="D367" s="4">
-        <v>0.5055555555555555</v>
-      </c>
-      <c r="E367" s="4">
-        <v>0.5902777777777778</v>
-      </c>
-      <c r="F367" s="4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G367" s="4">
         <v>0.7319444444444444</v>
       </c>
     </row>
